--- a/data/income_statement/3digits/total/291_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/291_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>291-Manufacture of motor vehicles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>291-Manufacture of motor vehicles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>28385306.73295</v>
@@ -962,16 +868,16 @@
         <v>42158636.10846</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>44528053.9852</v>
+        <v>48046284.97703</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>48450265.36387999</v>
+        <v>54348499.51688</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>43992289.05198</v>
+        <v>69803810.086</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>73488605.60831</v>
+        <v>79223169.28974001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>107701542.68173</v>
@@ -980,13 +886,18 @@
         <v>139522793.01009</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>157578494.8544</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>157578540.01387</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>182301279.248</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>11934243.45772</v>
@@ -1001,31 +912,36 @@
         <v>21467372.36873</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>21633540.98785</v>
+        <v>24879026.16117</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>23330501.69765</v>
+        <v>28889627.1346</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>23469297.17069</v>
+        <v>37700629.84643</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>36043474.86561</v>
+        <v>38549645.98055001</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>48936359.33665</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>50364467.18438</v>
+        <v>50364467.18437999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>49892412.66681001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>49892454.57628001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>74006444.398</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>16317557.65857</v>
@@ -1040,16 +956,16 @@
         <v>20460945.36945</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>22537564.66737</v>
+        <v>22755685.46203</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>24826107.66699</v>
+        <v>25101659.99212</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>20371124.69625</v>
+        <v>31533174.27697</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>36657588.26839001</v>
+        <v>39885980.83487999</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>57664107.78188</v>
@@ -1060,11 +976,16 @@
       <c r="M7" s="48" t="n">
         <v>106871258.17354</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>107011570.521</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>133505.61666</v>
@@ -1073,19 +994,19 @@
         <v>132796.93928</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>323725.7726399999</v>
+        <v>323725.77264</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>230318.37028</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>356948.32998</v>
+        <v>411573.35383</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>293655.99924</v>
+        <v>357212.39016</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>151867.18504</v>
+        <v>570005.9626</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>787542.4743100001</v>
@@ -1097,13 +1018,18 @@
         <v>1623231.99045</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>814824.01405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>814827.2640500001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>1283264.329</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1290185.72294</v>
@@ -1118,16 +1044,16 @@
         <v>2444816.63985</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1978242.96259</v>
+        <v>2263238.87193</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>2146498.29256</v>
+        <v>2552206.48166</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2590711.28909</v>
+        <v>3770650.34278</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>3827700.35714</v>
+        <v>3943671.20332</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>4523136.470570001</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>4581434.7642</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>4916718.67</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>122566.84814</v>
@@ -1157,16 +1088,16 @@
         <v>321373.13007</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>133607.62271</v>
+        <v>138710.89783</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>169458.44637</v>
+        <v>176984.45921</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>108941.52872</v>
+        <v>195235.95135</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>232273.17066</v>
+        <v>248340.12273</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>196647.22413</v>
@@ -1177,11 +1108,16 @@
       <c r="M10" s="48" t="n">
         <v>238775.43735</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>314092.357</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>939435.5817400001</v>
@@ -1196,16 +1132,16 @@
         <v>1634635.60888</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1477039.95695</v>
+        <v>1551522.95557</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1655146.61648</v>
+        <v>1752242.10847</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1980484.13166</v>
+        <v>2726035.39505</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2634842.94216</v>
+        <v>2734746.83627</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>3231947.10272</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>3405674.64521</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>3540613.373</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>228183.29306</v>
@@ -1235,13 +1176,13 @@
         <v>488807.9009</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>367595.38293</v>
+        <v>573005.01853</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>321893.22971</v>
+        <v>622979.91398</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>501285.62871</v>
+        <v>849378.99638</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>960584.2443199999</v>
@@ -1255,11 +1196,16 @@
       <c r="M12" s="48" t="n">
         <v>936984.68164</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1062012.94</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>27095121.01001</v>
@@ -1274,16 +1220,16 @@
         <v>39713819.46861</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>42549811.02261001</v>
+        <v>45783046.1051</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>46303767.07132</v>
+        <v>51796293.03522</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>41401577.76289</v>
+        <v>66033159.74322</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>69660905.25116999</v>
+        <v>75279498.08642</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>103178406.21116</v>
@@ -1292,13 +1238,18 @@
         <v>134781756.45559</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>152997060.0902</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>152997105.24967</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>177384560.578</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>24391420.29447</v>
@@ -1310,19 +1261,19 @@
         <v>37263323.96613</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>35874341.17959</v>
+        <v>35874341.17958999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>38143527.70082</v>
+        <v>41044898.35374</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>42531143.83989999</v>
+        <v>47619103.2819</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>37598010.27377</v>
+        <v>60590658.96779</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>63743618.71183001</v>
+        <v>69157694.23412</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>94141970.92539001</v>
@@ -1331,13 +1282,18 @@
         <v>121874387.89585</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>140700461.62949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>140700499.31059</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>158099138.114</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>20870041.62843001</v>
@@ -1352,16 +1308,16 @@
         <v>29847693.79586</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>31561532.76126</v>
+        <v>33538051.52417</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>35380390.70652001</v>
+        <v>39663821.74269</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>30381352.29514</v>
+        <v>49922185.20796</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>53048775.43482</v>
+        <v>57767227.55022</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>80821597.90654999</v>
@@ -1372,17 +1328,22 @@
       <c r="M15" s="48" t="n">
         <v>127987372.45493</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>143232326.368</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>3338644.782049999</v>
+        <v>3338644.78205</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>4302527.036069999</v>
+        <v>4302527.03607</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>5766512.67223</v>
@@ -1391,16 +1352,16 @@
         <v>5625245.045839999</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>6170731.84887</v>
+        <v>7095583.738879999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>6476234.408190001</v>
+        <v>7280762.81402</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>6661719.58547</v>
+        <v>9631763.542730002</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>9501940.044929998</v>
+        <v>10197563.45182</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>11741411.58379</v>
@@ -1409,13 +1370,18 @@
         <v>10016880.08245</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>10083251.56428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>10083289.24538</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>12146639.523</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>8540.173110000002</v>
@@ -1439,7 +1405,7 @@
         <v>170463.83572</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>94886.38138999998</v>
+        <v>94886.38139</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>142509.19806</v>
@@ -1450,17 +1416,22 @@
       <c r="M17" s="48" t="n">
         <v>322475.02685</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="48" t="n">
+        <v>356737.847</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>174193.71088</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>316090.8280800001</v>
+        <v>316090.82808</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>452593.6813</v>
@@ -1475,7 +1446,7 @@
         <v>572121.1449499999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>384474.55744</v>
+        <v>866246.38138</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>1098016.85069</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>2307362.58343</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>2363434.376</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2703700.71554</v>
@@ -1508,16 +1484,16 @@
         <v>3839478.28902</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>4406283.32179</v>
+        <v>4738147.751360001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>3772623.23142</v>
+        <v>4177189.75332</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>3803567.48912</v>
+        <v>5442500.77543</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5917286.539340001</v>
+        <v>6121803.8523</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>9036435.285770001</v>
@@ -1526,13 +1502,18 @@
         <v>12907368.55974</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>12296598.46071</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12296605.93908</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>19285422.464</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1485128.22802</v>
@@ -1547,31 +1528,36 @@
         <v>2098761.41869</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2242633.19181</v>
+        <v>2384814.1057</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2283973.27444</v>
+        <v>2463317.94508</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1971077.64628</v>
+        <v>2798188.81251</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3183570.35461</v>
+        <v>3371798.5599</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>4131995.73598</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5399914.62302</v>
+        <v>5399946.112110001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>6042352.5474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6042407.844980001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>6646695.013</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>182484.27916</v>
@@ -1592,10 +1578,10 @@
         <v>328647.60994</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>194515.33195</v>
+        <v>205301.20919</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>275533.5227199999</v>
+        <v>286485.31805</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>394955.8486</v>
@@ -1606,14 +1592,19 @@
       <c r="M21" s="48" t="n">
         <v>778240.89263</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>669093.057</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>798581.3934699999</v>
+        <v>798581.39347</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>849817.2199800001</v>
@@ -1625,70 +1616,80 @@
         <v>1034370.55361</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1022182.98063</v>
+        <v>1126170.21803</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1037610.44133</v>
+        <v>1190766.59554</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>867529.99564</v>
+        <v>1469539.6132</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1666318.23838</v>
+        <v>1709322.53575</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2187925.54568</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>2956581.51602</v>
+        <v>2956581.654120001</v>
       </c>
       <c r="M22" s="48" t="n">
         <v>3199064.06693</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="48" t="n">
+        <v>3308848.871</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>504062.55539</v>
+        <v>504062.5553900001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>516829.5099000001</v>
+        <v>516829.5099</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>689708.5185899999</v>
+        <v>689708.51859</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>719692.60649</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>799529.71013</v>
+        <v>837723.38662</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>917715.22317</v>
+        <v>943903.7395999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>909032.3186900001</v>
+        <v>1123347.99012</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1241718.59351</v>
+        <v>1375990.7061</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1549114.3417</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1839892.82913</v>
+        <v>1839924.18012</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2065047.58784</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2065102.88542</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2668753.085</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>1218572.48752</v>
@@ -1703,34 +1704,39 @@
         <v>1740716.87033</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>2163650.12998</v>
+        <v>2353333.64566</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1488649.95698</v>
+        <v>1713871.80824</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1832489.84284</v>
+        <v>2644311.962919999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>2733716.18473</v>
+        <v>2750005.2924</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>4904439.549790001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7507453.936720001</v>
+        <v>7507422.447629999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>6254245.913310001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6254198.0941</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>12638727.451</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>886343.3713500001</v>
+        <v>886343.3713499999</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>904135.2889800001</v>
@@ -1742,16 +1748,16 @@
         <v>1676332.18881</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2078553.47214</v>
+        <v>2158288.01996</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2865471.43837</v>
+        <v>3084525.91828</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3358602.76235</v>
+        <v>4377881.926089999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>3810582.12833</v>
+        <v>4001660.39439</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>5801903.92912</v>
@@ -1760,13 +1766,18 @@
         <v>16421070.93511</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>9001525.211110001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>9001522.401459999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>21450809.254</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>17218.68</v>
@@ -1787,7 +1798,7 @@
         <v>39385.86122999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>27999.99752</v>
+        <v>28468.66143</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>40421.79396</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>421.79752</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>1171.66</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>397.76536</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>27316.23453</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>29153.348</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>104563.68402</v>
@@ -1859,16 +1880,16 @@
         <v>175215.96523</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>134887.77128</v>
+        <v>139974.09683</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>145847.38519</v>
+        <v>148750.05927</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>152794.43699</v>
+        <v>175358.81626</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>214347.57486</v>
+        <v>229091.23403</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>319580.09626</v>
@@ -1879,11 +1900,16 @@
       <c r="M28" s="48" t="n">
         <v>588247.78895</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="48" t="n">
+        <v>984316.061</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>9323.87127</v>
@@ -1904,7 +1930,7 @@
         <v>4252.36778</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>11.86441</v>
+        <v>5555.13486</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>6257.78802</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>4101.21943</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>7950.078</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>71267.35754000001</v>
@@ -1946,7 +1977,7 @@
         <v>24594.27257</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>72047.73655</v>
+        <v>72411.27556000001</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>40193.70594</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>235350.80929</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>24474.646</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2.39319</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>175220.30217</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>47.53</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>509580.89821</v>
@@ -2015,16 +2056,16 @@
         <v>1133273.46541</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1476454.42313</v>
+        <v>1545085.7508</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2052447.29825</v>
+        <v>2270332.98657</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2676211.76348</v>
+        <v>3563937.11928</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2739567.44912</v>
+        <v>2764601.52632</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>4602407.221770001</v>
@@ -2033,13 +2074,18 @@
         <v>14676908.6735</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6701639.023930001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6701639.02393</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>18933868.149</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>5950.12606</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>19191.88007</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>6849.834</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>168038.5957</v>
@@ -2132,16 +2188,16 @@
         <v>252880.05289</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>298950.65834</v>
+        <v>304967.55294</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>549244.5714200001</v>
+        <v>547510.6889299999</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>440871.76851</v>
+        <v>543849.2628199999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>534196.2988</v>
+        <v>685133.28948</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>746968.01618</v>
@@ -2150,13 +2206,18 @@
         <v>1183110.82322</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1250036.15522</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1250033.34557</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1462977.948</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>541837.82364</v>
@@ -2171,19 +2232,19 @@
         <v>1037096.20364</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1763816.82984</v>
+        <v>1803503.06528</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2038993.33479</v>
+        <v>2186747.50753</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>3420993.23354</v>
+        <v>4762351.00632</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3376233.20772</v>
+        <v>3470377.19936</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4978432.742020001</v>
+        <v>4978432.74202</v>
       </c>
       <c r="L36" s="47" t="n">
         <v>15832720.45127</v>
@@ -2191,11 +2252,16 @@
       <c r="M36" s="47" t="n">
         <v>7480804.789369999</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="47" t="n">
+        <v>19356733.357</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>1502.62476</v>
@@ -2216,7 +2282,7 @@
         <v>5041.465520000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>548.46054</v>
+        <v>548.4605399999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1834.207</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>13294.89927</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>14441.067</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>86717.78971</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>359443.19178</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>173982.927</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1548294.70922</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>376180.57341</v>
@@ -2327,16 +2408,16 @@
         <v>842733.94806</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1462684.59002</v>
+        <v>1502227.87001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1721009.96108</v>
+        <v>1868613.36333</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2319828.08102</v>
+        <v>3660433.93799</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3159650.38712</v>
+        <v>3175229.77724</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>4712957.08249</v>
@@ -2345,13 +2426,18 @@
         <v>13643018.62388</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>5107234.367710001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>5107234.36771</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>18671960.741</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>4234.6747</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>4795.49548</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1907.6</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>3271.84487</v>
@@ -2425,50 +2516,60 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>69930.31619</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>60336.85224999999</v>
+        <v>60336.85225</v>
       </c>
       <c r="E43" s="48" t="n">
         <v>74235.6232</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>79056.22563999999</v>
+        <v>79056.22564</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>162042.37615</v>
+        <v>162185.3316</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>162554.79605</v>
+        <v>162705.56654</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>991545.36485</v>
+        <v>992297.2806599999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>31069.72612</v>
+        <v>109634.32764</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>165355.82628</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>319079.89609</v>
+        <v>319079.8960900001</v>
       </c>
       <c r="M43" s="48" t="n">
         <v>447742.1259099999</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>494441.022</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>461790.90312</v>
@@ -2483,34 +2584,39 @@
         <v>503292.85087</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>606426.0029600001</v>
+        <v>809373.29987</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>518773.6440600001</v>
+        <v>624083.0912</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>798941.38316</v>
+        <v>929034.12973</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>975492.7329300001</v>
+        <v>1002473.02295</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>1573964.70782</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4332607.5935</v>
+        <v>4332607.593500001</v>
       </c>
       <c r="M44" s="47" t="n">
         <v>2278726.90983</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="47" t="n">
+        <v>4583874.207</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>401127.92818</v>
+        <v>401127.9281799999</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>241549.74164</v>
@@ -2522,16 +2628,16 @@
         <v>445419.9458</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>533390.36831</v>
+        <v>657171.6431299999</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>447476.75093</v>
+        <v>542026.2674300001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>692382.0359699999</v>
+        <v>714573.2182499999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>686991.59404</v>
+        <v>713971.8840600001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1290287.47385</v>
@@ -2542,11 +2648,16 @@
       <c r="M45" s="48" t="n">
         <v>1945039.06607</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="48" t="n">
+        <v>3825280.516</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>60662.97494</v>
@@ -2561,13 +2672,13 @@
         <v>57872.90507</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>73035.63464999999</v>
+        <v>152201.65674</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>71296.89313000001</v>
+        <v>82056.82377000002</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>106559.34719</v>
+        <v>214460.91148</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>288501.13889</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>333687.84376</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>758593.691</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>1101287.13211</v>
@@ -2600,31 +2716,36 @@
         <v>1876660.00463</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>1871960.76932</v>
+        <v>1898745.30047</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1796354.4165</v>
+        <v>1987567.12779</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>971157.9884900001</v>
+        <v>1330808.75296</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>2192572.37241</v>
+        <v>2278815.46448</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>4153946.02907</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3763196.827060001</v>
+        <v>3763165.33797</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>5496239.425220001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>5496188.796360001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>10148929.141</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>93638.53118999999</v>
@@ -2639,16 +2760,16 @@
         <v>91669.96323000001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>294767.6542400001</v>
+        <v>300664.65264</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>711208.54816</v>
+        <v>720322.0708999999</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>130300.03216</v>
+        <v>137414.98415</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>118231.7732</v>
+        <v>121520.91021</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>191064.18849</v>
@@ -2657,13 +2778,18 @@
         <v>191469.67726</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>351697.1257</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>351741.57527</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>279458.727</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>10918.48906</v>
@@ -2678,13 +2804,13 @@
         <v>9078.275949999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6902.0027</v>
+        <v>6923.03321</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>34255.90189</v>
+        <v>34256.28976000001</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>20668.71912</v>
+        <v>24429.62312</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>5873.86934</v>
@@ -2698,35 +2824,40 @@
       <c r="M49" s="48" t="n">
         <v>11136.64307</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>40791.194</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>82720.04213</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>79879.60254000001</v>
+        <v>79879.60253999999</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>63007.27286</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>82591.68728000001</v>
+        <v>82591.68728</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>287865.65154</v>
+        <v>293741.61943</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>676952.6462699999</v>
+        <v>686065.7811399999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>109631.31304</v>
+        <v>112985.36103</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>112357.90386</v>
+        <v>115647.04087</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>180892.79743</v>
@@ -2735,19 +2866,24 @@
         <v>184162.24881</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>340560.4826299999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>340604.9322</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>238667.533</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>410022.26839</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>80320.45610000001</v>
+        <v>80320.4561</v>
       </c>
       <c r="E51" s="47" t="n">
         <v>143856.09554</v>
@@ -2756,31 +2892,36 @@
         <v>324483.5450100001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>222673.17845</v>
+        <v>231471.61356</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>493556.78831</v>
+        <v>502581.25128</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>141647.33377</v>
+        <v>198413.84711</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>477459.6487200001</v>
+        <v>486535.57115</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>522148.9911400001</v>
+        <v>522148.99114</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>510022.74662</v>
+        <v>510022.7466199999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1066339.95955</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1067485.18449</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1452662.774</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>343805.34233</v>
@@ -2801,10 +2942,10 @@
         <v>113190.6612</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>93130.30797999998</v>
+        <v>140451.03398</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>319970.04751</v>
+        <v>323152.68725</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>431590.3831</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>907726.2943600001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1212640.737</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>17074.0982</v>
@@ -2834,16 +2980,16 @@
         <v>9911.660540000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>3419.17907</v>
+        <v>8752.145349999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>69911.30986000001</v>
+        <v>70828.61859</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7923.185769999999</v>
+        <v>14772.46986</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>34055.25664</v>
+        <v>36044.80720999999</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>26542.20209</v>
@@ -2852,13 +2998,18 @@
         <v>23069.04493</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>46094.66151000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>47239.88645000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>49737.054</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>49142.82786</v>
@@ -2873,16 +3024,16 @@
         <v>24847.67556</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>47871.47025999999</v>
+        <v>51336.93908999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>310454.81725</v>
+        <v>318561.97149</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>40593.84002</v>
+        <v>43190.34327</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>123434.34457</v>
+        <v>127338.07669</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>64016.40595</v>
@@ -2893,11 +3044,16 @@
       <c r="M54" s="48" t="n">
         <v>112519.00368</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="48" t="n">
+        <v>190284.983</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>784903.39491</v>
@@ -2912,31 +3068,36 @@
         <v>1643846.42285</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>1944055.24511</v>
+        <v>1967938.33955</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>2014006.17635</v>
+        <v>2205307.94741</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>959810.6868800002</v>
+        <v>1269809.89</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1833344.49689</v>
+        <v>1913800.80354</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>3822861.22642</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3444643.7577</v>
+        <v>3444612.26861</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4781596.591370001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4780445.18714</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8975725.094000001</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>119790.73077</v>
@@ -2945,7 +3106,7 @@
         <v>282575.69214</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>366214.5651300001</v>
+        <v>366214.56513</v>
       </c>
       <c r="F56" s="47" t="n">
         <v>229335.97967</v>
@@ -2957,25 +3118,30 @@
         <v>127312.79986</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>116308.70704</v>
+        <v>122953.09837</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>123719.41486</v>
+        <v>126050.16927</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>79241.30398</v>
+        <v>79241.30397999998</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>66678.63296</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>80878.64638999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>80876.14078999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>193850.67</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>665112.66414</v>
@@ -2990,28 +3156,31 @@
         <v>1414510.44318</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1650292.78168</v>
+        <v>1674175.87612</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>1886693.37649</v>
+        <v>2077995.14755</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>843501.97984</v>
+        <v>1146856.79163</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1709625.08203</v>
+        <v>1787750.63427</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>3743619.922439999</v>
+        <v>3743619.92244</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3377965.12474</v>
+        <v>3377933.63565</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4700717.94498</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4699569.04635</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>8781874.424000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>35</v>
@@ -3044,28 +3216,31 @@
         <v>39</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>42</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>38</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>42</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>41</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>37</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>39</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>39</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>43</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>68</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>